--- a/AD010_内部定義/BB010_メッセージ一覧/BB010021_ログメッセージ一覧.xlsx
+++ b/AD010_内部定義/BB010_メッセージ一覧/BB010021_ログメッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AB020_機能設計書\AA010_メッセージ一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BB010_メッセージ一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE0501-EC61-49F6-A7F8-868D3F53F0DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD5AF8-5592-4EA7-A958-C63371C086FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="11232" windowWidth="14124" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="5340" windowWidth="15490" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログメッセージ一覧" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,9 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
